--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_first.xlsx
@@ -994,6 +994,9 @@
       <c r="J15">
         <v>-0.1358722724086538</v>
       </c>
+      <c r="K15">
+        <v>-0.4017729932881683</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1023,8 +1026,11 @@
       <c r="I16">
         <v>0.2179142336710425</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16">
+        <v>-0.04798648720847212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1049,8 +1055,11 @@
       <c r="H17">
         <v>0.06973684323859711</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>-0.1961638776409175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1072,8 +1081,11 @@
       <c r="G18">
         <v>-0.08770914576555788</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18">
+        <v>-0.3536098666450724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1092,8 +1104,11 @@
       <c r="F19">
         <v>0.4129503107605129</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19">
+        <v>0.1470495898809984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1109,8 +1124,11 @@
       <c r="E20">
         <v>0.1325924302250437</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="F20">
+        <v>-0.1333082906544708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1123,8 +1141,11 @@
       <c r="D21">
         <v>0.3045672880700554</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="E21">
+        <v>0.03866656719054083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1134,18 +1155,27 @@
       <c r="C22">
         <v>-0.001295251676276088</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="D22">
+        <v>-0.2671959725557906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
         <v>0.6110347010110101</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="C23">
+        <v>0.3451339801314955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.343237405067616</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_first.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2.027808622295978</v>
+        <v>9.960511441256548</v>
       </c>
       <c r="C2">
-        <v>9.960511441256548</v>
+        <v>-7.953374226292953</v>
       </c>
       <c r="D2">
-        <v>-7.953374226292953</v>
+        <v>0.2335353073468205</v>
       </c>
       <c r="E2">
-        <v>0.2335353073468205</v>
+        <v>0.8732301461903136</v>
       </c>
       <c r="F2">
-        <v>0.8732301461903136</v>
+        <v>-0.9276358786007236</v>
       </c>
       <c r="G2">
-        <v>-0.9276358786007236</v>
+        <v>-1.886570575107837</v>
       </c>
       <c r="H2">
-        <v>-1.886570575107837</v>
+        <v>0.9471476497731522</v>
       </c>
       <c r="I2">
-        <v>0.9471476497731522</v>
+        <v>-0.7219570139330117</v>
       </c>
       <c r="J2">
-        <v>-0.7219570139330117</v>
+        <v>0.298215423810231</v>
       </c>
       <c r="K2">
-        <v>0.298215423810231</v>
+        <v>-1.41557403308908</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>7.710708601645155</v>
+        <v>-10.20317706590435</v>
       </c>
       <c r="C3">
-        <v>-10.20317706590435</v>
+        <v>-2.016267532264572</v>
       </c>
       <c r="D3">
-        <v>-2.016267532264572</v>
+        <v>-1.376572693421079</v>
       </c>
       <c r="E3">
-        <v>-1.376572693421079</v>
+        <v>-3.177438718212116</v>
       </c>
       <c r="F3">
-        <v>-3.177438718212116</v>
+        <v>-4.136373414719229</v>
       </c>
       <c r="G3">
-        <v>-4.136373414719229</v>
+        <v>-1.30265518983824</v>
       </c>
       <c r="H3">
-        <v>-1.30265518983824</v>
+        <v>-2.971759853544404</v>
       </c>
       <c r="I3">
-        <v>-2.971759853544404</v>
+        <v>-1.951587415801161</v>
       </c>
       <c r="J3">
-        <v>-1.951587415801161</v>
+        <v>-3.665376872700473</v>
       </c>
       <c r="K3">
-        <v>-3.665376872700473</v>
+        <v>-0.8370214991015008</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-17.67232739676164</v>
+        <v>-9.485417863121866</v>
       </c>
       <c r="C4">
-        <v>-9.485417863121866</v>
+        <v>-8.845723024278371</v>
       </c>
       <c r="D4">
-        <v>-8.845723024278371</v>
+        <v>-10.64658904906941</v>
       </c>
       <c r="E4">
-        <v>-10.64658904906941</v>
+        <v>-11.60552374557652</v>
       </c>
       <c r="F4">
-        <v>-11.60552374557652</v>
+        <v>-8.771805520695533</v>
       </c>
       <c r="G4">
-        <v>-8.771805520695533</v>
+        <v>-10.4409101844017</v>
       </c>
       <c r="H4">
-        <v>-10.4409101844017</v>
+        <v>-9.420737746658455</v>
       </c>
       <c r="I4">
-        <v>-9.420737746658455</v>
+        <v>-11.13452720355777</v>
       </c>
       <c r="J4">
-        <v>-11.13452720355777</v>
+        <v>-8.306171829958794</v>
       </c>
       <c r="K4">
-        <v>-8.306171829958794</v>
+        <v>-10.54150442982491</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>8.685843937015603</v>
+        <v>9.325538775859098</v>
       </c>
       <c r="C5">
-        <v>9.325538775859098</v>
+        <v>7.52467275106806</v>
       </c>
       <c r="D5">
-        <v>7.52467275106806</v>
+        <v>6.565738054560947</v>
       </c>
       <c r="E5">
-        <v>6.565738054560947</v>
+        <v>9.399456279441935</v>
       </c>
       <c r="F5">
-        <v>9.399456279441935</v>
+        <v>7.730351615735771</v>
       </c>
       <c r="G5">
-        <v>7.730351615735771</v>
+        <v>8.750524053479014</v>
       </c>
       <c r="H5">
-        <v>8.750524053479014</v>
+        <v>7.036734596579703</v>
       </c>
       <c r="I5">
-        <v>7.036734596579703</v>
+        <v>9.865089970178675</v>
       </c>
       <c r="J5">
-        <v>9.865089970178675</v>
+        <v>7.629757370312555</v>
       </c>
       <c r="K5">
-        <v>7.629757370312555</v>
+        <v>8.981092428230218</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.185867228879948</v>
+        <v>-0.6149987959110895</v>
       </c>
       <c r="C6">
-        <v>-0.6149987959110895</v>
+        <v>-1.573933492418202</v>
       </c>
       <c r="D6">
-        <v>-1.573933492418202</v>
+        <v>1.259784732462786</v>
       </c>
       <c r="E6">
-        <v>1.259784732462786</v>
+        <v>-0.4093199312433776</v>
       </c>
       <c r="F6">
-        <v>-0.4093199312433776</v>
+        <v>0.6108525064998651</v>
       </c>
       <c r="G6">
-        <v>0.6108525064998651</v>
+        <v>-1.102936950399446</v>
       </c>
       <c r="H6">
-        <v>-1.102936950399446</v>
+        <v>1.725418423199526</v>
       </c>
       <c r="I6">
-        <v>1.725418423199526</v>
+        <v>-0.5099141766665937</v>
       </c>
       <c r="J6">
-        <v>-0.5099141766665937</v>
+        <v>0.8414208812510687</v>
       </c>
       <c r="K6">
-        <v>0.8414208812510687</v>
+        <v>0.2199829514341669</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-2.762569267710482</v>
+        <v>-3.721503964217595</v>
       </c>
       <c r="C7">
-        <v>-3.721503964217595</v>
+        <v>-0.8877857393366061</v>
       </c>
       <c r="D7">
-        <v>-0.8877857393366061</v>
+        <v>-2.55689040304277</v>
       </c>
       <c r="E7">
-        <v>-2.55689040304277</v>
+        <v>-1.536717965299527</v>
       </c>
       <c r="F7">
-        <v>-1.536717965299527</v>
+        <v>-3.250507422198839</v>
       </c>
       <c r="G7">
-        <v>-3.250507422198839</v>
+        <v>-0.4221520485998669</v>
       </c>
       <c r="H7">
-        <v>-0.4221520485998669</v>
+        <v>-2.657484648465986</v>
       </c>
       <c r="I7">
-        <v>-2.657484648465986</v>
+        <v>-1.306149590548324</v>
       </c>
       <c r="J7">
-        <v>-1.306149590548324</v>
+        <v>-1.927587520365226</v>
       </c>
       <c r="K7">
-        <v>-1.927587520365226</v>
+        <v>-1.427026823174395</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.281473977694265</v>
+        <v>2.552244247186724</v>
       </c>
       <c r="C8">
-        <v>2.552244247186724</v>
+        <v>0.8831395834805599</v>
       </c>
       <c r="D8">
-        <v>0.8831395834805599</v>
+        <v>1.903312021223803</v>
       </c>
       <c r="E8">
-        <v>1.903312021223803</v>
+        <v>0.1895225643244911</v>
       </c>
       <c r="F8">
-        <v>0.1895225643244911</v>
+        <v>3.017877937923463</v>
       </c>
       <c r="G8">
-        <v>3.017877937923463</v>
+        <v>0.7825453380573438</v>
       </c>
       <c r="H8">
-        <v>0.7825453380573438</v>
+        <v>2.133880395975006</v>
       </c>
       <c r="I8">
-        <v>2.133880395975006</v>
+        <v>1.512442466158104</v>
       </c>
       <c r="J8">
-        <v>1.512442466158104</v>
+        <v>2.013003163348936</v>
       </c>
       <c r="K8">
-        <v>2.013003163348936</v>
+        <v>1.345095091002794</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2.613418425600925</v>
+        <v>0.9443137618947609</v>
       </c>
       <c r="C9">
-        <v>0.9443137618947609</v>
+        <v>1.964486199638004</v>
       </c>
       <c r="D9">
-        <v>1.964486199638004</v>
+        <v>0.2506967427386921</v>
       </c>
       <c r="E9">
-        <v>0.2506967427386921</v>
+        <v>3.079052116337664</v>
       </c>
       <c r="F9">
-        <v>3.079052116337664</v>
+        <v>0.8437195164715449</v>
       </c>
       <c r="G9">
-        <v>0.8437195164715449</v>
+        <v>2.195054574389207</v>
       </c>
       <c r="H9">
-        <v>2.195054574389207</v>
+        <v>1.573616644572305</v>
       </c>
       <c r="I9">
-        <v>1.573616644572305</v>
+        <v>2.074177341763137</v>
       </c>
       <c r="J9">
-        <v>2.074177341763137</v>
+        <v>1.406269269416995</v>
       </c>
       <c r="K9">
-        <v>1.406269269416995</v>
+        <v>1.835270244654998</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1.097142175261494</v>
+        <v>-0.07696973751825081</v>
       </c>
       <c r="C10">
-        <v>-0.07696973751825081</v>
+        <v>-1.790759194417562</v>
       </c>
       <c r="D10">
-        <v>-1.790759194417562</v>
+        <v>1.03759617918141</v>
       </c>
       <c r="E10">
-        <v>1.03759617918141</v>
+        <v>-1.19773642068471</v>
       </c>
       <c r="F10">
-        <v>-1.19773642068471</v>
+        <v>0.1535986372329528</v>
       </c>
       <c r="G10">
-        <v>0.1535986372329528</v>
+        <v>-0.467839292583949</v>
       </c>
       <c r="H10">
-        <v>-0.467839292583949</v>
+        <v>0.032721404606882</v>
       </c>
       <c r="I10">
-        <v>0.032721404606882</v>
+        <v>-0.6351866677392595</v>
       </c>
       <c r="J10">
-        <v>-0.6351866677392595</v>
+        <v>-0.2061856925012563</v>
       </c>
       <c r="K10">
-        <v>-0.2061856925012563</v>
+        <v>-0.1485141439230462</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.5056247995153902</v>
+        <v>-1.208164657383921</v>
       </c>
       <c r="C11">
-        <v>-1.208164657383921</v>
+        <v>1.620190716215051</v>
       </c>
       <c r="D11">
-        <v>1.620190716215051</v>
+        <v>-0.6151418836510686</v>
       </c>
       <c r="E11">
-        <v>-0.6151418836510686</v>
+        <v>0.7361931742665938</v>
       </c>
       <c r="F11">
-        <v>0.7361931742665938</v>
+        <v>0.114755244449692</v>
       </c>
       <c r="G11">
-        <v>0.114755244449692</v>
+        <v>0.6153159416405229</v>
       </c>
       <c r="H11">
-        <v>0.6153159416405229</v>
+        <v>-0.05259213070561841</v>
       </c>
       <c r="I11">
-        <v>-0.05259213070561841</v>
+        <v>0.3764088445323847</v>
       </c>
       <c r="J11">
-        <v>0.3764088445323847</v>
+        <v>0.4340803931105948</v>
       </c>
       <c r="K11">
-        <v>0.4340803931105948</v>
+        <v>0.5580467639488803</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1.303839698193279</v>
+        <v>1.524515675405693</v>
       </c>
       <c r="C12">
-        <v>1.524515675405693</v>
+        <v>-0.7108169244604263</v>
       </c>
       <c r="D12">
-        <v>-0.7108169244604263</v>
+        <v>0.6405181334572361</v>
       </c>
       <c r="E12">
-        <v>0.6405181334572361</v>
+        <v>0.01908020364033419</v>
       </c>
       <c r="F12">
-        <v>0.01908020364033419</v>
+        <v>0.5196409008311652</v>
       </c>
       <c r="G12">
-        <v>0.5196409008311652</v>
+        <v>-0.1482671715149762</v>
       </c>
       <c r="H12">
-        <v>-0.1482671715149762</v>
+        <v>0.2807338037230269</v>
       </c>
       <c r="I12">
-        <v>0.2807338037230269</v>
+        <v>0.338405352301237</v>
       </c>
       <c r="J12">
-        <v>0.338405352301237</v>
+        <v>0.4623717231395225</v>
       </c>
       <c r="K12">
-        <v>0.4623717231395225</v>
+        <v>-0.4310464000952693</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1.784934712404416</v>
+        <v>-0.4503978874617036</v>
       </c>
       <c r="C13">
-        <v>-0.4503978874617036</v>
+        <v>0.9009371704559588</v>
       </c>
       <c r="D13">
-        <v>0.9009371704559588</v>
+        <v>0.279499240639057</v>
       </c>
       <c r="E13">
-        <v>0.279499240639057</v>
+        <v>0.780059937829888</v>
       </c>
       <c r="F13">
-        <v>0.780059937829888</v>
+        <v>0.1121518654837466</v>
       </c>
       <c r="G13">
-        <v>0.1121518654837466</v>
+        <v>0.5411528407217497</v>
       </c>
       <c r="H13">
-        <v>0.5411528407217497</v>
+        <v>0.5988243892999598</v>
       </c>
       <c r="I13">
-        <v>0.5988243892999598</v>
+        <v>0.7227907601382453</v>
       </c>
       <c r="J13">
-        <v>0.7227907601382453</v>
+        <v>-0.1706273630965465</v>
       </c>
       <c r="K13">
-        <v>-0.1706273630965465</v>
+        <v>0.5995033638472159</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1.285852883620195</v>
+        <v>0.06548217429746761</v>
       </c>
       <c r="C14">
-        <v>0.06548217429746761</v>
+        <v>-0.5559557555194342</v>
       </c>
       <c r="D14">
-        <v>-0.5559557555194342</v>
+        <v>-0.0553950583286032</v>
       </c>
       <c r="E14">
-        <v>-0.0553950583286032</v>
+        <v>-0.7233031306747446</v>
       </c>
       <c r="F14">
-        <v>-0.7233031306747446</v>
+        <v>-0.2943021554367415</v>
       </c>
       <c r="G14">
-        <v>-0.2943021554367415</v>
+        <v>-0.2366306068585314</v>
       </c>
       <c r="H14">
-        <v>-0.2366306068585314</v>
+        <v>-0.1126642360202459</v>
       </c>
       <c r="I14">
-        <v>-0.1126642360202459</v>
+        <v>-1.006082359255038</v>
       </c>
       <c r="J14">
-        <v>-1.006082359255038</v>
+        <v>-0.2359516323112753</v>
       </c>
       <c r="K14">
-        <v>-0.2359516323112753</v>
+        <v>-0.5018523531907899</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,33 +968,30 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1655615342000891</v>
+        <v>-0.4558763956168127</v>
       </c>
       <c r="C15">
-        <v>-0.4558763956168127</v>
+        <v>0.04468430157401831</v>
       </c>
       <c r="D15">
-        <v>0.04468430157401831</v>
+        <v>-0.6232237707721231</v>
       </c>
       <c r="E15">
-        <v>-0.6232237707721231</v>
+        <v>-0.19422279553412</v>
       </c>
       <c r="F15">
-        <v>-0.19422279553412</v>
+        <v>-0.1365512469559099</v>
       </c>
       <c r="G15">
-        <v>-0.1365512469559099</v>
+        <v>-0.01258487611762438</v>
       </c>
       <c r="H15">
-        <v>-0.01258487611762438</v>
+        <v>-0.9060029993524162</v>
       </c>
       <c r="I15">
-        <v>-0.9060029993524162</v>
+        <v>-0.1358722724086538</v>
       </c>
       <c r="J15">
-        <v>-0.1358722724086538</v>
-      </c>
-      <c r="K15">
         <v>-0.4017729932881683</v>
       </c>
     </row>
@@ -1003,179 +1000,152 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.1020898895371165</v>
+        <v>0.3984708076537146</v>
       </c>
       <c r="C16">
-        <v>0.3984708076537146</v>
+        <v>-0.2694372646924268</v>
       </c>
       <c r="D16">
-        <v>-0.2694372646924268</v>
+        <v>0.1595637105455762</v>
       </c>
       <c r="E16">
-        <v>0.1595637105455762</v>
+        <v>0.2172352591237863</v>
       </c>
       <c r="F16">
-        <v>0.2172352591237863</v>
+        <v>0.3412016299620719</v>
       </c>
       <c r="G16">
-        <v>0.3412016299620719</v>
+        <v>-0.55221649327272</v>
       </c>
       <c r="H16">
-        <v>-0.55221649327272</v>
+        <v>0.2179142336710425</v>
       </c>
       <c r="I16">
-        <v>0.2179142336710425</v>
-      </c>
-      <c r="J16">
         <v>-0.04798648720847212</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.2502934172212692</v>
+        <v>-0.4176146551248722</v>
       </c>
       <c r="C17">
-        <v>-0.4176146551248722</v>
+        <v>0.0113863201131309</v>
       </c>
       <c r="D17">
-        <v>0.0113863201131309</v>
+        <v>0.06905786869134101</v>
       </c>
       <c r="E17">
-        <v>0.06905786869134101</v>
+        <v>0.1930242395296265</v>
       </c>
       <c r="F17">
-        <v>0.1930242395296265</v>
+        <v>-0.7003938837051653</v>
       </c>
       <c r="G17">
-        <v>-0.7003938837051653</v>
+        <v>0.06973684323859711</v>
       </c>
       <c r="H17">
-        <v>0.06973684323859711</v>
-      </c>
-      <c r="I17">
         <v>-0.1961638776409175</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.5750606441290271</v>
+        <v>-0.1460596688910241</v>
       </c>
       <c r="C18">
-        <v>-0.1460596688910241</v>
+        <v>-0.08838812031281398</v>
       </c>
       <c r="D18">
-        <v>-0.08838812031281398</v>
+        <v>0.03557825052547153</v>
       </c>
       <c r="E18">
-        <v>0.03557825052547153</v>
+        <v>-0.8578398727093204</v>
       </c>
       <c r="F18">
-        <v>-0.8578398727093204</v>
+        <v>-0.08770914576555788</v>
       </c>
       <c r="G18">
-        <v>-0.08770914576555788</v>
-      </c>
-      <c r="H18">
         <v>-0.3536098666450724</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.3545997876350467</v>
+        <v>0.4122713362132568</v>
       </c>
       <c r="C19">
-        <v>0.4122713362132568</v>
+        <v>0.5362377070515423</v>
       </c>
       <c r="D19">
-        <v>0.5362377070515423</v>
+        <v>-0.3571804161832495</v>
       </c>
       <c r="E19">
-        <v>-0.3571804161832495</v>
+        <v>0.4129503107605129</v>
       </c>
       <c r="F19">
-        <v>0.4129503107605129</v>
-      </c>
-      <c r="G19">
         <v>0.1470495898809984</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.1319134556777877</v>
+        <v>0.2558798265160732</v>
       </c>
       <c r="C20">
-        <v>0.2558798265160732</v>
+        <v>-0.6375382967187186</v>
       </c>
       <c r="D20">
-        <v>-0.6375382967187186</v>
+        <v>0.1325924302250437</v>
       </c>
       <c r="E20">
-        <v>0.1325924302250437</v>
-      </c>
-      <c r="F20">
         <v>-0.1333082906544708</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.4278546843610848</v>
+        <v>-0.465563438873707</v>
       </c>
       <c r="C21">
-        <v>-0.465563438873707</v>
+        <v>0.3045672880700554</v>
       </c>
       <c r="D21">
-        <v>0.3045672880700554</v>
-      </c>
-      <c r="E21">
         <v>0.03866656719054083</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.7714259786200386</v>
+        <v>-0.001295251676276088</v>
       </c>
       <c r="C22">
-        <v>-0.001295251676276088</v>
-      </c>
-      <c r="D22">
         <v>-0.2671959725557906</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.6110347010110101</v>
-      </c>
-      <c r="C23">
         <v>0.3451339801314955</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B24">
-        <v>-0.343237405067616</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_first.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>2.027808622295978</v>
+      </c>
+      <c r="C2">
         <v>9.960511441256548</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-7.953374226292953</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.2335353073468205</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.8732301461903136</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.9276358786007236</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-1.886570575107837</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.9471476497731522</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.7219570139330117</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.298215423810231</v>
-      </c>
-      <c r="K2">
-        <v>-1.41557403308908</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>7.710708601645155</v>
+      </c>
+      <c r="C3">
         <v>-10.20317706590435</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-2.016267532264572</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-1.376572693421079</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-3.177438718212116</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-4.136373414719229</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-1.30265518983824</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-2.971759853544404</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-1.951587415801161</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-3.665376872700473</v>
-      </c>
-      <c r="K3">
-        <v>-0.8370214991015008</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-17.67232739676164</v>
+      </c>
+      <c r="C4">
         <v>-9.485417863121866</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-8.845723024278371</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-10.64658904906941</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-11.60552374557652</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-8.771805520695533</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-10.4409101844017</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-9.420737746658455</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-11.13452720355777</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-8.306171829958794</v>
-      </c>
-      <c r="K4">
-        <v>-10.54150442982491</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>8.685843937015603</v>
+      </c>
+      <c r="C5">
         <v>9.325538775859098</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>7.52467275106806</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>6.565738054560947</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>9.399456279441935</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>7.730351615735771</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>8.750524053479014</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>7.036734596579703</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>9.865089970178675</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>7.629757370312555</v>
-      </c>
-      <c r="K5">
-        <v>8.981092428230218</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>1.185867228879948</v>
+      </c>
+      <c r="C6">
         <v>-0.6149987959110895</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1.573933492418202</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.259784732462786</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.4093199312433776</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.6108525064998651</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-1.102936950399446</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.725418423199526</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.5099141766665937</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.8414208812510687</v>
-      </c>
-      <c r="K6">
-        <v>0.2199829514341669</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-2.762569267710482</v>
+      </c>
+      <c r="C7">
         <v>-3.721503964217595</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.8877857393366061</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-2.55689040304277</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-1.536717965299527</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-3.250507422198839</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.4221520485998669</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-2.657484648465986</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-1.306149590548324</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-1.927587520365226</v>
-      </c>
-      <c r="K7">
-        <v>-1.427026823174395</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.281473977694265</v>
+      </c>
+      <c r="C8">
         <v>2.552244247186724</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.8831395834805599</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.903312021223803</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.1895225643244911</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3.017877937923463</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.7825453380573438</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2.133880395975006</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.512442466158104</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2.013003163348936</v>
-      </c>
-      <c r="K8">
-        <v>1.345095091002794</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>2.613418425600925</v>
+      </c>
+      <c r="C9">
         <v>0.9443137618947609</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.964486199638004</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.2506967427386921</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3.079052116337664</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.8437195164715449</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.195054574389207</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.573616644572305</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2.074177341763137</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1.406269269416995</v>
-      </c>
-      <c r="K9">
-        <v>1.835270244654998</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-1.097142175261494</v>
+      </c>
+      <c r="C10">
         <v>-0.07696973751825081</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-1.790759194417562</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.03759617918141</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-1.19773642068471</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.1535986372329528</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.467839292583949</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.032721404606882</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.6351866677392595</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.2061856925012563</v>
-      </c>
-      <c r="K10">
-        <v>-0.1485141439230462</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.5056247995153902</v>
+      </c>
+      <c r="C11">
         <v>-1.208164657383921</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.620190716215051</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.6151418836510686</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.7361931742665938</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.114755244449692</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.6153159416405229</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.05259213070561841</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.3764088445323847</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.4340803931105948</v>
-      </c>
-      <c r="K11">
-        <v>0.5580467639488803</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-1.303839698193279</v>
+      </c>
+      <c r="C12">
         <v>1.524515675405693</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.7108169244604263</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.6405181334572361</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.01908020364033419</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.5196409008311652</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.1482671715149762</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.2807338037230269</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.338405352301237</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.4623717231395225</v>
-      </c>
-      <c r="K12">
-        <v>-0.4310464000952693</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>1.784934712404416</v>
+      </c>
+      <c r="C13">
         <v>-0.4503978874617036</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.9009371704559588</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.279499240639057</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.780059937829888</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.1121518654837466</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.5411528407217497</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.5988243892999598</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.7227907601382453</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-0.1706273630965465</v>
-      </c>
-      <c r="K13">
-        <v>0.5995033638472159</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-1.285852883620195</v>
+      </c>
+      <c r="C14">
         <v>0.06548217429746761</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.5559557555194342</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.0553950583286032</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.7233031306747446</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.2943021554367415</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.2366306068585314</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.1126642360202459</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-1.006082359255038</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.2359516323112753</v>
-      </c>
-      <c r="K14">
-        <v>-0.5018523531907899</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,30 +968,33 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.1655615342000891</v>
+      </c>
+      <c r="C15">
         <v>-0.4558763956168127</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.04468430157401831</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.6232237707721231</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.19422279553412</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.1365512469559099</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.01258487611762438</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.9060029993524162</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-0.1358722724086538</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-0.4017729932881683</v>
       </c>
     </row>
@@ -1000,152 +1003,179 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.1020898895371165</v>
+      </c>
+      <c r="C16">
         <v>0.3984708076537146</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-0.2694372646924268</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.1595637105455762</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.2172352591237863</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.3412016299620719</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.55221649327272</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.2179142336710425</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-0.04798648720847212</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.2502934172212692</v>
+      </c>
+      <c r="C17">
         <v>-0.4176146551248722</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.0113863201131309</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.06905786869134101</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.1930242395296265</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-0.7003938837051653</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.06973684323859711</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-0.1961638776409175</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.5750606441290271</v>
+      </c>
+      <c r="C18">
         <v>-0.1460596688910241</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.08838812031281398</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.03557825052547153</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-0.8578398727093204</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.08770914576555788</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.3536098666450724</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.3545997876350467</v>
+      </c>
+      <c r="C19">
         <v>0.4122713362132568</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.5362377070515423</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.3571804161832495</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.4129503107605129</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.1470495898809984</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
+        <v>0.1319134556777877</v>
+      </c>
+      <c r="C20">
         <v>0.2558798265160732</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.6375382967187186</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.1325924302250437</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.1333082906544708</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
+        <v>0.4278546843610848</v>
+      </c>
+      <c r="C21">
         <v>-0.465563438873707</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.3045672880700554</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.03866656719054083</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-0.7714259786200386</v>
+      </c>
+      <c r="C22">
         <v>-0.001295251676276088</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-0.2671959725557906</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
+        <v>0.6110347010110101</v>
+      </c>
+      <c r="C23">
         <v>0.3451339801314955</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.343237405067616</v>
       </c>
     </row>
   </sheetData>
